--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig@s.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>172.18.1.108</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,7 +436,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -494,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5">
         <v>10000</v>
